--- a/pred_ohlcv/54_21/2019-10-12 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4341.943600000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3564.3851</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3559.123900000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5381.016000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3091.016000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3123.807400000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-11376.1278</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-10425.5091</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-10058.5091</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9922.663100000003</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9631.915100000004</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-13177.66570000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-12786.07000000001</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-12860.65870000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-15387.54960000001</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-14544.48970000001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-14545.48970000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-12631.82307021898</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12341.67127021898</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-13153.46257021898</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-12442.12987021898</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>19992.68149005312</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>20060.02149005312</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>19675.20609005313</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>19676.20609005313</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19526.20609005313</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>17428.30349005312</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4027.395190053125</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4954.638690053125</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-12 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5381.016000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3091.016000000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3123.807400000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-11376.1278</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-10425.5091</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-10058.5091</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9922.663100000003</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9631.915100000004</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-12816.07000000001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-12860.65870000001</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-13016.48090000001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-14544.48970000001</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-14545.48970000001</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-14529.92510000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-12631.82307021898</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12341.67127021898</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-13153.46257021898</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-12442.12987021898</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-12442.12987021898</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-11818.15397021898</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-11910.15397021898</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-11863.72277021898</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8914.255070218984</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8914.255070218984</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>20825.21402978101</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>7477.508690053124</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>19992.68149005312</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>20060.02149005312</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>19675.20609005313</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>19676.20609005313</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19526.20609005313</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>17428.30349005312</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4027.395190053125</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4954.638690053125</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
